--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE703CE-D6F6-449B-A898-9360A9AC6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8681F63-1504-A04B-BE5C-D9010666AA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="8625" windowHeight="10643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27340" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -802,16 +813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1266,7 +1277,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1322,8 +1333,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,14 +1357,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1378,7 +1389,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1406,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1403,7 +1414,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1450,7 +1461,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1535,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1603,10 +1614,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,16 +1628,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,7 +1701,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,10 +1710,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1717,7 +1728,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1742,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1739,13 +1750,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,9 +1766,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1877,10 +1888,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2089,22 +2096,22 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2113,7 +2120,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2128,7 +2135,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2141,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>4.42</v>
+        <v>4.25</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2165,7 +2172,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2179,13 +2186,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4613.1163415999999</v>
+        <v>4435.6887900000002</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2216,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2231,8 +2238,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2240,23 +2247,23 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="170">
-        <v>4.0899999999999999E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="125" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="184">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>216</v>
@@ -2265,7 +2272,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2273,13 +2280,12 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="170">
-        <f>(C12+C17)/2</f>
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2315,18 +2321,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
       <c r="C17" s="194">
-        <f>(C15+C16)/2</f>
         <v>0.1125</v>
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2341,7 +2346,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2354,10 +2359,10 @@
       </c>
       <c r="G20" s="178">
         <f>Fin_Analysis!F91</f>
-        <v>0.12529251728173096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.12559069415323262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2373,7 +2378,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2398,26 +2403,26 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.2583088683306947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.2099123733948989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="178">
-        <f>Fin_Analysis!F82</f>
-        <v>8.0000000000000004E-4</v>
+        <f>Fin_Analysis!F81</f>
+        <v>0</v>
       </c>
       <c r="F24" s="181" t="s">
         <v>198</v>
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.1451182022796785E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.4061323414891791E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2430,27 +2435,27 @@
       </c>
       <c r="G25" s="178">
         <f>Fin_Analysis!F87</f>
-        <v>0.58244372240621944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.58106088709231496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="178">
         <f>Fin_Analysis!F83</f>
-        <v>9.4813296424433244E-2</v>
+        <v>9.5038937450074273E-2</v>
       </c>
       <c r="F26" s="183" t="s">
         <v>221</v>
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.579185520361991E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.7223529411764711E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2468,919 +2473,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
       <c r="C29" s="168">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>3.6178104179021102</v>
+        <v>3.6241684504187823</v>
       </c>
       <c r="D29" s="167">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>6.0296840298368508</v>
+        <v>6.0402807506979705</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>4.8237472238694803</v>
+        <v>4.8322246005583764</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3444,7 +3449,7 @@
       <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3452,7 +3457,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3460,7 +3465,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3477,7 +3482,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3503,13 +3508,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3559,7 +3564,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3593,7 +3598,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3644,7 +3649,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3678,7 +3683,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3729,7 +3734,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3763,7 +3768,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3814,7 +3819,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3848,7 +3853,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3899,7 +3904,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3917,7 +3922,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3951,7 +3956,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3985,7 +3990,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4019,7 +4024,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4053,7 +4058,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4104,7 +4109,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4155,7 +4160,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4206,7 +4211,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4257,7 +4262,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4308,7 +4313,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4359,7 +4364,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4410,7 +4415,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4445,7 +4450,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4480,7 +4485,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4515,7 +4520,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4546,7 +4551,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4577,7 +4582,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4608,7 +4613,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4639,7 +4644,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4690,7 +4695,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4721,7 +4726,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4752,7 +4757,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4783,7 +4788,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4834,7 +4839,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4885,7 +4890,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4903,7 +4908,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4954,7 +4959,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -5005,7 +5010,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5056,7 +5061,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5107,7 +5112,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5158,7 +5163,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5209,7 +5214,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5260,7 +5265,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5278,7 +5283,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5329,7 +5334,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5380,7 +5385,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5397,7 +5402,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5447,7 +5452,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5497,7 +5502,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5547,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5597,1260 +5602,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6885,24 +6890,24 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.9296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6918,7 +6923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6941,7 +6946,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6957,7 +6962,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6972,18 +6977,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>1262385.6575888318</v>
+        <v>1264593.1669123385</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65566204045776089</v>
+        <v>0.6550599033441481</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6997,14 +7002,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.209539104016478</v>
+        <v>1.2116542015963745</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7020,13 +7025,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7045,7 +7050,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7070,7 +7075,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7093,7 +7098,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7116,7 +7121,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7139,7 +7144,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7162,7 +7167,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7185,7 +7190,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7203,7 +7208,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7223,7 +7228,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7242,7 +7247,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7284,7 +7289,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7303,7 +7308,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7325,7 +7330,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7334,7 +7339,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7356,7 +7361,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7385,7 +7390,7 @@
         <v>2.4149712645467392</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7418,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7480,7 +7485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7492,7 +7497,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7511,7 +7516,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7535,7 +7540,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7555,7 +7560,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7578,7 +7583,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7601,7 +7606,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7624,7 +7629,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7646,7 +7651,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7668,7 +7673,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7687,7 +7692,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7704,7 +7709,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7723,7 +7728,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7742,7 +7747,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7775,7 +7780,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7794,7 +7799,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7813,7 +7818,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7899,7 +7904,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7926,20 +7931,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7956,7 +7961,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7966,18 +7971,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2583088683306947</v>
+        <v>1.2099123733948989</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>57395.242411167979</v>
+        <v>55187.733087661523</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7986,7 +7991,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7997,7 +8002,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8012,7 +8017,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8027,7 +8032,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8041,7 +8046,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8050,7 +8055,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8064,7 +8069,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8085,7 +8090,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8106,7 +8111,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8127,7 +8132,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8142,7 +8147,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8163,7 +8168,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8173,7 +8178,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8187,7 +8192,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8208,7 +8213,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8223,7 +8228,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8244,7 +8249,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8258,7 +8263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8272,7 +8277,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8287,7 +8292,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8308,7 +8313,7 @@
         <v>0.66005868735054896</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8323,7 +8328,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>0.20403193785652382</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8359,7 +8364,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8380,7 +8385,7 @@
         <v>7.0437342852983705E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8401,7 +8406,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8425,7 +8430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8446,28 +8451,28 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="100">
-        <f>C78-C79-C80-C81-C82/(1-F84)</f>
-        <v>187276.48717948719</v>
+        <f>C78-C79-C80-C81-C82</f>
+        <v>188117</v>
       </c>
       <c r="D83" s="133">
         <f>C83/$C$74</f>
-        <v>4.8856511613940536E-2</v>
+        <v>4.9075783798054572E-2</v>
       </c>
       <c r="E83" s="152">
-        <f>E78-E79-E80-E81-E82/(1-F84)</f>
-        <v>363437.75897435896</v>
+        <f>E78-E79-E80-E81-E82</f>
+        <v>364302.68479999999</v>
       </c>
       <c r="F83" s="135">
         <f t="shared" si="8"/>
-        <v>9.4813296424433244E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>9.5038937450074273E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8478,43 +8483,43 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
-        <v>146075.66</v>
+        <v>146731.26</v>
       </c>
       <c r="D85" s="135">
         <f>C85/$C$74</f>
-        <v>3.8108079058873617E-2</v>
+        <v>3.8279111362482569E-2</v>
       </c>
       <c r="E85" s="154">
         <f>E83*(1-F84)</f>
-        <v>283481.45199999999</v>
+        <v>284156.09414399997</v>
       </c>
       <c r="F85" s="135">
         <f>E85/$E$74</f>
-        <v>7.3954371211057926E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.4130371211057922E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
       <c r="C86" s="161">
         <f>C85*Data!E3/Common_Shares</f>
-        <v>0.13996057532250814</v>
+        <v>0.14058873030179378</v>
       </c>
       <c r="D86" s="130"/>
       <c r="E86" s="163">
         <f>E85*Data!E3/Common_Shares</f>
-        <v>0.27161422454076178</v>
+        <v>0.27226062451329008</v>
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8523,7 +8528,7 @@
       </c>
       <c r="D87" s="135">
         <f>C87/C86</f>
-        <v>1.1303183031040216</v>
+        <v>1.1252680044865697</v>
       </c>
       <c r="E87" s="162">
         <f>C87</f>
@@ -8531,14 +8536,14 @@
       </c>
       <c r="F87" s="135">
         <f>E87/E86</f>
-        <v>0.58244372240621944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.58106088709231496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8548,7 +8553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8558,7 +8563,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8571,11 +8576,11 @@
       <c r="E91" s="206"/>
       <c r="F91" s="29">
         <f>E83/C68</f>
-        <v>0.12529251728173096</v>
+        <v>0.12559069415323262</v>
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8593,7 +8598,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8604,20 +8609,20 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>3717789.5344262295</v>
+        <v>3726637.3002491803</v>
       </c>
       <c r="D95" s="155">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>3.5621537644690071</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.5706311411579028</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8632,7 +8637,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8651,28 +8656,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>5034503.8792262301</v>
+        <v>5043351.6450491808</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>4.8237472238694803</v>
+        <v>4.8322246005583764</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>3.6178104179021102</v>
+        <v>3.6241684504187823</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>6.0296840298368508</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.0402807506979705</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>2.5934426229508203</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8681F63-1504-A04B-BE5C-D9010666AA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{738F38F8-FCFE-4748-A67A-2C1B9DE82790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27340" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -813,16 +802,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1277,7 +1266,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1333,8 +1322,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,14 +1346,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1389,7 +1378,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1395,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1414,7 +1403,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,7 +1450,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1524,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1614,10 +1603,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,16 +1617,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,7 +1690,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,10 +1699,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1717,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1731,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1750,13 +1739,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,9 +1755,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2099,19 +2088,19 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2120,7 +2109,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2135,7 +2124,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2148,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>4.25</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2172,7 +2161,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2186,13 +2175,13 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4435.6887900000002</v>
+        <v>4425.2516363179775</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2205,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2238,8 +2227,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2247,7 +2236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2258,7 +2247,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
@@ -2272,7 +2261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2284,8 +2273,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2296,7 +2285,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2307,7 +2296,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2321,7 +2310,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2330,8 +2319,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2346,7 +2335,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2362,7 +2351,7 @@
         <v>0.12559069415323262</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2378,7 +2367,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2390,7 +2379,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2403,10 +2392,10 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.2099123733948989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.2070654555923308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2419,10 +2408,10 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.4061323414891791E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6.4212414908100354E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2438,7 +2427,7 @@
         <v>0.58106088709231496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2451,11 +2440,11 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.7223529411764711E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.7311322768840582E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2473,7 +2462,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2492,900 +2481,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3449,7 +3438,7 @@
       <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3457,7 +3446,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3465,7 +3454,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3482,7 +3471,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3508,13 +3497,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3564,7 +3553,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3598,7 +3587,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3649,7 +3638,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3683,7 +3672,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3734,7 +3723,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3768,7 +3757,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3819,7 +3808,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3853,7 +3842,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3904,7 +3893,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3922,7 +3911,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3956,7 +3945,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3990,7 +3979,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4024,7 +4013,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4058,7 +4047,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4109,7 +4098,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4160,7 +4149,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4211,7 +4200,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4262,7 +4251,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4313,7 +4302,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4364,7 +4353,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4415,7 +4404,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4450,7 +4439,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4485,7 +4474,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4520,7 +4509,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4551,7 +4540,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4582,7 +4571,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4613,7 +4602,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4644,7 +4633,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4695,7 +4684,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4726,7 +4715,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4757,7 +4746,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4788,7 +4777,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4839,7 +4828,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4890,7 +4879,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4908,7 +4897,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4959,7 +4948,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -5010,7 +4999,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5061,7 +5050,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5112,7 +5101,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5163,7 +5152,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5214,7 +5203,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5265,7 +5254,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5283,7 +5272,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5334,7 +5323,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5385,7 +5374,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5402,7 +5391,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5452,7 +5441,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5502,7 +5491,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5552,7 +5541,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5602,1260 +5591,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6894,7 +6883,7 @@
       <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6903,11 +6892,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6923,7 +6912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6946,7 +6935,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6962,7 +6951,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6977,18 +6966,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>1264593.1669123385</v>
+        <v>1264723.0233740669</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6550599033441481</v>
+        <v>0.65502448270323999</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -7002,14 +6991,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.2116542015963745</v>
+        <v>1.2117786219487647</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7025,13 +7014,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7050,7 +7039,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7075,7 +7064,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7098,7 +7087,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7121,7 +7110,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7144,7 +7133,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7167,7 +7156,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7190,7 +7179,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7208,7 +7197,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7228,7 +7217,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7247,7 +7236,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7267,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7289,7 +7278,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7308,7 +7297,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7330,7 +7319,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7339,7 +7328,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7361,7 +7350,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7390,7 +7379,7 @@
         <v>2.4149712645467392</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7423,7 +7412,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7456,7 +7445,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7485,7 +7474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7497,7 +7486,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7516,7 +7505,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7540,7 +7529,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7560,7 +7549,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7583,7 +7572,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7606,7 +7595,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7629,7 +7618,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7651,7 +7640,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7673,7 +7662,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7692,7 +7681,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7709,7 +7698,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7728,7 +7717,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7747,7 +7736,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7771,7 +7760,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7780,7 +7769,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7799,7 +7788,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7818,7 +7807,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7848,7 +7837,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7878,7 +7867,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7904,7 +7893,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7931,20 +7920,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7961,7 +7950,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7971,18 +7960,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2099123733948989</v>
+        <v>1.2070654555923308</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>55187.733087661523</v>
+        <v>55057.876625932986</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7991,7 +7980,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -8002,7 +7991,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8017,7 +8006,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8032,7 +8021,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8046,7 +8035,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8055,7 +8044,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8069,7 +8058,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8090,7 +8079,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8111,7 +8100,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8132,7 +8121,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8147,7 +8136,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8168,7 +8157,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8178,7 +8167,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8192,7 +8181,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8213,7 +8202,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8228,7 +8217,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8249,7 +8238,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8263,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8277,7 +8266,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8292,7 +8281,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8313,7 +8302,7 @@
         <v>0.66005868735054896</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8328,7 +8317,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8349,7 +8338,7 @@
         <v>0.20403193785652382</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8364,7 +8353,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8385,7 +8374,7 @@
         <v>7.0437342852983705E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8406,7 +8395,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8430,7 +8419,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8451,7 +8440,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8472,7 +8461,7 @@
         <v>9.5038937450074273E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8483,7 +8472,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8504,7 +8493,7 @@
         <v>7.4130371211057922E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8519,7 +8508,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8539,11 +8528,11 @@
         <v>0.58106088709231496</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8553,7 +8542,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8563,7 +8552,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8580,7 +8569,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8598,7 +8587,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8609,7 +8598,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
@@ -8622,7 +8611,7 @@
         <v>3.5706311411579028</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8637,7 +8626,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8656,7 +8645,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8677,7 +8666,7 @@
         <v>6.0402807506979705</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8692,7 +8681,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
@@ -8713,7 +8702,7 @@
         <v>2.5934426229508203</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{738F38F8-FCFE-4748-A67A-2C1B9DE82790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F096FC-1B6C-4BDF-BC76-338E5F744F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9F096FC-1B6C-4BDF-BC76-338E5F744F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8818012F-0972-4625-BDC9-FE69E86BD825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="12691" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8818012F-0972-4625-BDC9-FE69E86BD825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A2B49A-8DE3-4E74-A8BB-2DB7B2BE391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>4.2399997711181641</v>
+        <v>4.3499999046325684</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>4425.2516363179775</v>
+        <v>4540.0578384658238</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.2070654555923308</v>
+        <v>1.2383808726780174</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.4212414908100354E-2</v>
+        <v>6.2588650685565281E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.7311322768840582E-2</v>
+        <v>3.6367816889265589E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6973,11 +6973,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>1264723.0233740669</v>
+        <v>1263294.6332545376</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65502448270323999</v>
+        <v>0.65541410130848332</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6998,7 +6998,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.2117786219487647</v>
+        <v>1.2104100277359144</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2070654555923308</v>
+        <v>1.2383808726780174</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>55057.876625932986</v>
+        <v>56486.26674546241</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A2B49A-8DE3-4E74-A8BB-2DB7B2BE391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83EB9B19-D871-184B-832B-8DCAB262B6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -802,16 +813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1266,7 +1277,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1322,8 +1333,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,14 +1357,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1378,7 +1389,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1406,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1403,7 +1414,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1450,7 +1461,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1535,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1603,10 +1614,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,16 +1628,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,7 +1701,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,10 +1710,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1717,7 +1728,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,7 +1742,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1739,13 +1750,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1755,9 +1766,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2088,19 +2099,19 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2109,7 +2120,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2124,7 +2135,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2161,7 +2172,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2181,7 +2192,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2216,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2227,8 +2238,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2247,12 +2258,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>216</v>
@@ -2261,7 +2272,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2273,8 +2284,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2296,7 +2307,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2310,7 +2321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2319,8 +2330,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2335,7 +2346,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>0.12559069415323262</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2379,7 +2390,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2395,7 +2406,7 @@
         <v>1.2383808726780174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2411,7 +2422,7 @@
         <v>6.2588650685565281E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2427,7 +2438,7 @@
         <v>0.58106088709231496</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2443,8 +2454,8 @@
         <v>3.6367816889265589E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2462,7 +2473,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2481,900 +2492,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3438,7 +3449,7 @@
       <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3446,7 +3457,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3454,7 +3465,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3471,7 +3482,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3497,13 +3508,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3553,7 +3564,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3587,7 +3598,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3638,7 +3649,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3672,7 +3683,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3723,7 +3734,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3757,7 +3768,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3808,7 +3819,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3842,7 +3853,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3893,7 +3904,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3911,7 +3922,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3945,7 +3956,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3979,7 +3990,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4013,7 +4024,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4047,7 +4058,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4098,7 +4109,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4149,7 +4160,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4200,7 +4211,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4251,7 +4262,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4302,7 +4313,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4353,7 +4364,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4404,7 +4415,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4439,7 +4450,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4474,7 +4485,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4509,7 +4520,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4540,7 +4551,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4571,7 +4582,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4602,7 +4613,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4633,7 +4644,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4684,7 +4695,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4715,7 +4726,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4746,7 +4757,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4777,7 +4788,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4828,7 +4839,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4879,7 +4890,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4897,7 +4908,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4948,7 +4959,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4999,7 +5010,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5050,7 +5061,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5101,7 +5112,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5152,7 +5163,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5203,7 +5214,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5254,7 +5265,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5272,7 +5283,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5323,7 +5334,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5374,7 +5385,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5391,7 +5402,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5441,7 +5452,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5491,7 +5502,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5541,7 +5552,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5591,1260 +5602,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6883,7 +6894,7 @@
       <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6892,11 +6903,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6912,7 +6923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6935,7 +6946,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6951,7 +6962,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6966,7 +6977,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6991,7 +7002,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7014,13 +7025,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7039,7 +7050,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7064,7 +7075,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7087,7 +7098,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7110,7 +7121,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7133,7 +7144,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7156,7 +7167,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7179,7 +7190,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7197,7 +7208,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7217,7 +7228,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7236,7 +7247,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7256,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7278,7 +7289,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7297,7 +7308,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7319,7 +7330,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7328,7 +7339,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7350,7 +7361,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7379,7 +7390,7 @@
         <v>2.4149712645467392</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7412,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7445,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7474,7 +7485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7486,7 +7497,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7505,7 +7516,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7529,7 +7540,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7549,7 +7560,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7572,7 +7583,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7595,7 +7606,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7618,7 +7629,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7640,7 +7651,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7662,7 +7673,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7681,7 +7692,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7698,7 +7709,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7717,7 +7728,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7736,7 +7747,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7760,7 +7771,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7769,7 +7780,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7788,7 +7799,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7807,7 +7818,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7867,7 +7878,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7893,7 +7904,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7920,20 +7931,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7950,7 +7961,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7971,7 +7982,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7980,7 +7991,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7991,7 +8002,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8006,7 +8017,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8021,7 +8032,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8035,7 +8046,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8044,7 +8055,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8058,7 +8069,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8079,7 +8090,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8100,7 +8111,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8121,7 +8132,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8136,7 +8147,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8157,7 +8168,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8167,7 +8178,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8181,7 +8192,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8202,7 +8213,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8217,7 +8228,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8238,7 +8249,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8252,7 +8263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8266,7 +8277,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8281,7 +8292,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8302,7 +8313,7 @@
         <v>0.66005868735054896</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8317,7 +8328,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8338,7 +8349,7 @@
         <v>0.20403193785652382</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8353,7 +8364,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8374,7 +8385,7 @@
         <v>7.0437342852983705E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8395,7 +8406,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8419,7 +8430,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8440,7 +8451,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8461,7 +8472,7 @@
         <v>9.5038937450074273E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8472,7 +8483,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8493,7 +8504,7 @@
         <v>7.4130371211057922E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8508,7 +8519,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8528,11 +8539,11 @@
         <v>0.58106088709231496</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8542,7 +8553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8552,7 +8563,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8569,7 +8580,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8587,7 +8598,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8598,7 +8609,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
@@ -8611,7 +8622,7 @@
         <v>3.5706311411579028</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8626,7 +8637,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8645,7 +8656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8666,7 +8677,7 @@
         <v>6.0402807506979705</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8681,7 +8692,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>2.5934426229508203</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83EB9B19-D871-184B-832B-8DCAB262B6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F07AA-A39F-4CB4-AC82-1B5F85615937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -45,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="229">
   <si>
     <t>Company Info:</t>
   </si>
@@ -623,10 +612,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Valuation Drivers</t>
   </si>
   <si>
@@ -636,9 +621,6 @@
     <t>Internal Drivers</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj. Book Pre-tax ROA = </t>
-  </si>
-  <si>
     <t>Adj. Pre-tax ROA</t>
   </si>
   <si>
@@ -702,12 +684,6 @@
     <t xml:space="preserve">Pre-tax Profit </t>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate</t>
-  </si>
-  <si>
-    <t>Adj. Book Pre-tax ROA</t>
-  </si>
-  <si>
     <t>Choice of Required Return</t>
   </si>
   <si>
@@ -744,9 +720,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Business Indicators</t>
-  </si>
-  <si>
     <t>Normalized Cost Structure</t>
   </si>
   <si>
@@ -763,9 +736,6 @@
   </si>
   <si>
     <t>PB Ratio</t>
-  </si>
-  <si>
-    <t>Profit</t>
   </si>
   <si>
     <t>HK</t>
@@ -806,23 +776,52 @@
   <si>
     <t>Valued @</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Rate of Return (E/P)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>@15% Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Initial rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg of E and D method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+  <numFmts count="12">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1277,10 +1276,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1333,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1389,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1414,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1570,9 +1569,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1614,10 +1610,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,16 +1624,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,7 +1697,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,10 +1706,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1724,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,7 +1738,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1750,13 +1746,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1764,13 +1760,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2095,23 +2118,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2120,7 +2143,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2135,71 +2158,71 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="199" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="200"/>
+        <v>216</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="199"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="171">
+      <c r="G3" s="170">
         <v>4.3499999046325684</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="201" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="202"/>
+        <v>217</v>
+      </c>
+      <c r="C4" s="200" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="201"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="205">
+      <c r="G4" s="204">
         <v>1043691480</v>
       </c>
-      <c r="H4" s="205"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="203">
+        <v>178</v>
+      </c>
+      <c r="C5" s="202">
         <v>45591</v>
       </c>
-      <c r="D5" s="204"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="196">
         <f>G3*G4/1000000</f>
         <v>4540.0578384658238</v>
       </c>
-      <c r="H5" s="197"/>
+      <c r="H5" s="196"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="191">
+      <c r="C6" s="190">
         <v>8</v>
       </c>
-      <c r="D6" s="192">
+      <c r="D6" s="191">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2210,27 +2233,27 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="198" t="s">
+      <c r="G6" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="198"/>
+      <c r="H6" s="197"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="189" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="195" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" s="190" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="196" t="s">
-        <v>226</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="172">
+      <c r="G7" s="171">
         <v>1</v>
       </c>
       <c r="H7" s="77" t="str">
@@ -2238,1154 +2261,1142 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="186" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="179" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="169">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="170">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="184">
+      <c r="C11" s="183">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="177" t="s">
-        <v>216</v>
+      <c r="D11" s="176" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="192">
         <v>0.08</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="169">
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="169">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="170">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="170">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="125" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="183">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="193">
+        <v>0.1125</v>
+      </c>
+      <c r="D17" s="188"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="184" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="184">
-        <v>0.16</v>
-      </c>
-      <c r="D16" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="194">
-        <v>0.1125</v>
-      </c>
-      <c r="D17" s="189"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="185" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="174" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="94"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="213"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="178">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="176" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="177">
         <f>Fin_Analysis!F75</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="F20" s="181" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="178">
-        <f>Fin_Analysis!F91</f>
-        <v>0.12559069415323262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="178">
+      <c r="F20" s="213"/>
+      <c r="G20" s="214"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="177">
         <f>Fin_Analysis!F77</f>
         <v>0.20403193785652382</v>
       </c>
-      <c r="F21" s="181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="178">
-        <f>Fin_Analysis!F92</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="178">
+      <c r="F21" s="213"/>
+      <c r="G21" s="214"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="176" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="177">
         <f>Fin_Analysis!F79</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="F22" s="185" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="178">
+      <c r="F22" s="184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="176" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="177">
         <f>Fin_Analysis!F80</f>
-        <v>0.04</v>
-      </c>
-      <c r="F23" s="181" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="188">
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="180" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="187">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
         <v>1.2383808726780174</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="178">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="177">
         <f>Fin_Analysis!F81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="182">
+      <c r="F24" s="180" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="181">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>6.2588650685565281E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="178">
+        <v>7.5759810289163371E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="176" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="177">
         <f>Fin_Analysis!F82</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F25" s="181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="178">
+      <c r="F25" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="177">
         <f>Fin_Analysis!F87</f>
-        <v>0.58106088709231496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="179" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="178">
+        <v>0.480041023736138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="178" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="177">
         <f>Fin_Analysis!F83</f>
-        <v>9.5038937450074273E-2</v>
-      </c>
-      <c r="F26" s="183" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="182">
+        <v>0.11503893745007428</v>
+      </c>
+      <c r="F26" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="181">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
         <v>3.6367816889265589E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="168">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>3.6241684504187823</v>
-      </c>
-      <c r="D29" s="167">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>6.0402807506979705</v>
+        <v>184</v>
+      </c>
+      <c r="C29" s="167">
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
+        <v>2.4195186357672553</v>
+      </c>
+      <c r="D29" s="166">
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
+        <v>4.0325310596120918</v>
       </c>
       <c r="E29" s="94"/>
-      <c r="F29" s="169">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>4.8322246005583764</v>
+      <c r="F29" s="168">
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
+        <v>3.2260248476896738</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3397,26 +3408,26 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="12" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -3443,13 +3454,13 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3457,7 +3468,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3465,7 +3476,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3482,7 +3493,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3508,15 +3519,15 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="48">
@@ -3564,7 +3575,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3598,7 +3609,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3649,7 +3660,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3683,7 +3694,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3734,7 +3745,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3768,7 +3779,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3819,7 +3830,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3853,7 +3864,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3904,7 +3915,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3922,7 +3933,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3956,7 +3967,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3990,7 +4001,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4024,7 +4035,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4058,7 +4069,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4109,7 +4120,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4160,7 +4171,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4211,7 +4222,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4262,7 +4273,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4313,9 +4324,9 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="138" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="48">
@@ -4364,7 +4375,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4415,7 +4426,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4450,7 +4461,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4485,7 +4496,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4520,7 +4531,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4551,7 +4562,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4582,7 +4593,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4613,7 +4624,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4644,7 +4655,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4695,7 +4706,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4726,7 +4737,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4757,7 +4768,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4788,7 +4799,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4839,10 +4850,10 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="104">
         <f>IF(C6="","",C19/C37)</f>
@@ -4890,7 +4901,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4908,7 +4919,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4959,7 +4970,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -5010,7 +5021,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5061,7 +5072,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5112,7 +5123,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5163,7 +5174,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5214,7 +5225,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5265,7 +5276,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5283,7 +5294,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5334,7 +5345,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5385,7 +5396,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5402,7 +5413,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5452,7 +5463,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5502,7 +5513,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5552,7 +5563,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5602,1274 +5613,1274 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6888,13 +6899,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6903,11 +6914,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6923,12 +6934,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="94"/>
-      <c r="D3" s="141">
+      <c r="D3" s="140">
         <f>C49-I49</f>
         <v>3666124</v>
       </c>
@@ -6946,7 +6957,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6962,7 +6973,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6977,7 +6988,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -7002,7 +7013,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7025,13 +7036,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7040,7 +7051,7 @@
       <c r="D9" s="71">
         <v>45473</v>
       </c>
-      <c r="E9" s="144" t="str">
+      <c r="E9" s="143" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -7050,7 +7061,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E10" s="81" t="s">
         <v>35</v>
@@ -7075,7 +7086,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7098,7 +7109,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7121,7 +7132,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7144,7 +7155,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7163,11 +7174,11 @@
       <c r="H14" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7190,9 +7201,9 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64">
@@ -7208,7 +7219,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7228,7 +7239,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7247,7 +7258,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7267,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7289,7 +7300,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7308,7 +7319,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7330,7 +7341,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7339,7 +7350,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7361,7 +7372,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7390,7 +7401,7 @@
         <v>2.4149712645467392</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7456,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7485,7 +7496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7497,7 +7508,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7516,7 +7527,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7540,7 +7551,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7560,9 +7571,9 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="64">
@@ -7580,10 +7591,10 @@
       <c r="H33" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7606,7 +7617,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7629,7 +7640,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7651,7 +7662,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7673,7 +7684,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7692,7 +7703,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7709,7 +7720,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7728,7 +7739,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7747,7 +7758,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7771,7 +7782,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7780,7 +7791,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7799,7 +7810,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7818,7 +7829,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7848,7 +7859,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7878,7 +7889,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7904,7 +7915,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7931,20 +7942,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7961,7 +7972,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7982,7 +7993,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7991,62 +8002,62 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="159"/>
+      <c r="E55" s="158"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="210">
+      <c r="D56" s="209">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="211"/>
+      <c r="E56" s="210"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="205">
+      <c r="D57" s="204">
         <v>0</v>
       </c>
-      <c r="E57" s="204"/>
+      <c r="E57" s="203"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>92</v>
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="205">
+      <c r="D58" s="204">
         <v>0</v>
       </c>
-      <c r="E58" s="204"/>
+      <c r="E58" s="203"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8055,7 +8066,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8069,7 +8080,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8090,11 +8101,11 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="142">
+      <c r="C62" s="141">
         <f>C11+C30</f>
         <v>1322113</v>
       </c>
@@ -8102,7 +8113,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E62" s="143">
+      <c r="E62" s="142">
         <f>E11+E30</f>
         <v>1322113</v>
       </c>
@@ -8111,7 +8122,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8132,12 +8143,12 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="146" t="s">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="75">
         <f>D56+D57+D58</f>
         <v>7638</v>
@@ -8147,7 +8158,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8168,7 +8179,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8178,7 +8189,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8192,7 +8203,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8213,13 +8224,13 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="146" t="s">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="160">
+      <c r="C69" s="146"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="159">
         <f>I49-E64</f>
         <v>895584</v>
       </c>
@@ -8228,7 +8239,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8249,35 +8260,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="208">
+      <c r="C72" s="207">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="208"/>
+      <c r="D72" s="207"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="207" t="s">
+      <c r="C73" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="207"/>
-      <c r="E73" s="209" t="s">
+      <c r="D73" s="206"/>
+      <c r="E73" s="208" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="207"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="206"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8286,13 +8297,13 @@
         <v>3833194</v>
       </c>
       <c r="D74" s="130"/>
-      <c r="E74" s="149">
+      <c r="E74" s="148">
         <f>C74</f>
         <v>3833194</v>
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8304,16 +8315,16 @@
         <f>C75/$C$74</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="E75" s="149">
+      <c r="E75" s="148">
         <f>D75*E74</f>
         <v>2530133</v>
       </c>
-      <c r="F75" s="150">
+      <c r="F75" s="149">
         <f>E75/$E$74</f>
         <v>0.66005868735054896</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8322,13 +8333,13 @@
         <v>1303061</v>
       </c>
       <c r="D76" s="132"/>
-      <c r="E76" s="151">
+      <c r="E76" s="150">
         <f>E74-E75</f>
         <v>1303061</v>
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8340,16 +8351,16 @@
         <f>C77/$C$74</f>
         <v>0.20403193785652382</v>
       </c>
-      <c r="E77" s="149">
+      <c r="E77" s="148">
         <f>D77*E74</f>
         <v>782094</v>
       </c>
-      <c r="F77" s="150">
+      <c r="F77" s="149">
         <f>E77/$E$74</f>
         <v>0.20403193785652382</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8358,13 +8369,13 @@
         <v>520967</v>
       </c>
       <c r="D78" s="132"/>
-      <c r="E78" s="151">
+      <c r="E78" s="150">
         <f>E76-E77</f>
         <v>520967</v>
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8376,16 +8387,16 @@
         <f>C79/$C$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
-      <c r="E79" s="149">
+      <c r="E79" s="148">
         <f>C79</f>
         <v>270</v>
       </c>
-      <c r="F79" s="150">
+      <c r="F79" s="149">
         <f>E79/$E$74</f>
         <v>7.0437342852983705E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8397,16 +8408,16 @@
         <f>C80/$C$74</f>
         <v>8.5985734090160845E-2</v>
       </c>
-      <c r="E80" s="149">
-        <f>4%*E74</f>
-        <v>153327.76</v>
-      </c>
-      <c r="F80" s="150">
+      <c r="E80" s="148">
+        <f>2%*E74</f>
+        <v>76663.88</v>
+      </c>
+      <c r="F80" s="149">
         <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8418,11 +8429,11 @@
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="149">
+      <c r="E81" s="148">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="150">
+      <c r="F81" s="149">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -8430,9 +8441,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" s="95">
         <f>MAX(Data!C18,0)</f>
@@ -8442,16 +8453,16 @@
         <f>C82/$C$74</f>
         <v>7.7741956185885708E-4</v>
       </c>
-      <c r="E82" s="149">
+      <c r="E82" s="148">
         <f>E74*0.08%</f>
         <v>3066.5552000000002</v>
       </c>
-      <c r="F82" s="150">
+      <c r="F82" s="149">
         <f t="shared" si="8"/>
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8463,29 +8474,29 @@
         <f>C83/$C$74</f>
         <v>4.9075783798054572E-2</v>
       </c>
-      <c r="E83" s="152">
+      <c r="E83" s="151">
         <f>E78-E79-E80-E81-E82</f>
-        <v>364302.68479999999</v>
+        <v>440966.56479999999</v>
       </c>
       <c r="F83" s="135">
         <f t="shared" si="8"/>
-        <v>9.5038937450074273E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>0.11503893745007428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="121"/>
       <c r="D84" s="134"/>
-      <c r="E84" s="153"/>
+      <c r="E84" s="152"/>
       <c r="F84" s="136">
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
@@ -8495,134 +8506,147 @@
         <f>C85/$C$74</f>
         <v>3.8279111362482569E-2</v>
       </c>
-      <c r="E85" s="154">
+      <c r="E85" s="153">
         <f>E83*(1-F84)</f>
-        <v>284156.09414399997</v>
+        <v>343953.92054399999</v>
       </c>
       <c r="F85" s="135">
         <f>E85/$E$74</f>
-        <v>7.4130371211057922E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.9730371211057924E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="161">
+        <v>174</v>
+      </c>
+      <c r="C86" s="160">
         <f>C85*Data!E3/Common_Shares</f>
         <v>0.14058873030179378</v>
       </c>
       <c r="D86" s="130"/>
-      <c r="E86" s="163">
+      <c r="E86" s="162">
         <f>E85*Data!E3/Common_Shares</f>
-        <v>0.27226062451329008</v>
+        <v>0.32955516753284214</v>
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="164">
+        <v>175</v>
+      </c>
+      <c r="C87" s="163">
         <v>0.15820000000000001</v>
       </c>
       <c r="D87" s="135">
         <f>C87/C86</f>
         <v>1.1252680044865697</v>
       </c>
-      <c r="E87" s="162">
+      <c r="E87" s="161">
         <f>C87</f>
         <v>0.15820000000000001</v>
       </c>
       <c r="F87" s="135">
         <f>E87/E86</f>
-        <v>0.58106088709231496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.480041023736138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="21"/>
       <c r="H89" s="50" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="211" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="212" t="s">
-        <v>171</v>
-      </c>
-      <c r="E90" s="212"/>
+      <c r="E90" s="211"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="206" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="206"/>
+        <v>192</v>
+      </c>
+      <c r="C91" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="205" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="205"/>
       <c r="F91" s="29">
-        <f>E83/C68</f>
-        <v>0.12559069415323262</v>
-      </c>
-      <c r="H91" s="187"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>E86*Exchange_Rate/Dashboard!G3</f>
+        <v>7.5759810289163371E-2</v>
+      </c>
+      <c r="H91" s="186"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
       </c>
-      <c r="C92" s="176">
+      <c r="C92" s="175">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>9.6250000000000002E-2</v>
       </c>
-      <c r="D92" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="206"/>
-      <c r="F92" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="H92" s="187"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="215">
+        <v>5</v>
+      </c>
+      <c r="E92" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" s="216">
+        <f>FV(F91,D92,0,-(E86/C92))</f>
+        <v>4.9329187711481799</v>
+      </c>
+      <c r="H92" s="186"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="D94" s="165" t="str">
+      <c r="C94" s="164" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="217" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="156" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
-        <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>3726637.3002491803</v>
-      </c>
-      <c r="D95" s="155">
-        <f>C95*Data!$E$3/Common_Shares</f>
-        <v>3.5706311411579028</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <f>D95*Common_Shares/Data!E3</f>
+        <v>3251831.7752499217</v>
+      </c>
+      <c r="D95" s="154">
+        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
+        <v>3.1157021376182183</v>
+      </c>
+      <c r="E95" s="154">
+        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
+        <v>2.4525324501311041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8630,14 +8654,14 @@
         <f>E82*Exchange_Rate</f>
         <v>3066.5552000000002</v>
       </c>
-      <c r="D96" s="155">
+      <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
         <v>2.9381816933103642E-3</v>
       </c>
-      <c r="E96" s="94"/>
-      <c r="F96" s="138"/>
-    </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="130"/>
+      <c r="F96" s="137"/>
+    </row>
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8645,63 +8669,62 @@
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
         <v>1319780.8999999999</v>
       </c>
-      <c r="D97" s="156">
+      <c r="D97" s="155">
         <f>C97*Data!$E$3/Common_Shares</f>
         <v>1.2645316410937837</v>
       </c>
-      <c r="E97" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="158" t="s">
+      <c r="E97" s="218"/>
+      <c r="F97" s="157" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>5043351.6450491808</v>
+        <v>4568546.1200499218</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>4.8322246005583764</v>
+        <v>4.3772955970186915</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>3.6241684504187823</v>
+        <v>3.2829716977640189</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>6.0402807506979705</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5.4716194962733642</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" s="165" t="str">
-        <f>D94</f>
+        <v>177</v>
+      </c>
+      <c r="C100" s="164" t="str">
+        <f>C94</f>
         <v>HKD</v>
       </c>
-      <c r="E100" s="157" t="s">
+      <c r="D100" s="217"/>
+      <c r="E100" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="158" t="s">
+      <c r="F100" s="157" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
         <v>2165403.1755540986</v>
       </c>
-      <c r="D101" s="155">
-        <f>E87/(C92-F92)*Exchange_Rate</f>
+      <c r="D101" s="154">
+        <f>E87/(C92-2%)*Exchange_Rate</f>
         <v>2.0747540983606561</v>
       </c>
       <c r="E101" s="124">
@@ -8713,17 +8736,53 @@
         <v>2.5934426229508203</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="166" t="s">
-        <v>215</v>
+        <v>226</v>
+      </c>
+      <c r="C103" s="164" t="str">
+        <f>C100</f>
+        <v>HKD</v>
+      </c>
+      <c r="D103" s="217"/>
+      <c r="E103" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="F103" s="157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="102">
+        <f>D104*Common_Shares/Data!E3</f>
+        <v>3366974.6478020102</v>
+      </c>
+      <c r="D104" s="154">
+        <f>(D98+D101)/2</f>
+        <v>3.2260248476896738</v>
+      </c>
+      <c r="E104" s="124">
+        <f>D104*(1-25%)</f>
+        <v>2.4195186357672553</v>
+      </c>
+      <c r="F104" s="124">
+        <f>D104*1.25</f>
+        <v>4.0325310596120918</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="165" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D92:E92"/>
+  <mergeCells count="8">
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
@@ -8735,28 +8794,28 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(C103))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="2" priority="9">
+    <cfRule type="containsBlanks" dxfId="3" priority="10">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+    <cfRule type="containsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(F92))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -8764,8 +8823,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
-      <formula1>"Profit, Dividend"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
+      <formula1>"Profit, Dividend, Avg"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN, HK, Others"</formula1>

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F07AA-A39F-4CB4-AC82-1B5F85615937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E859F4D-4088-4D5A-B35B-AA6D8A8AB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1724,6 +1724,18 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1745,7 +1757,6 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,40 +1771,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2119,7 +2104,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2162,10 +2147,10 @@
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="202" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -2181,37 +2166,37 @@
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="200" t="s">
+      <c r="C4" s="204" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="201"/>
+      <c r="D4" s="205"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="204">
+      <c r="G4" s="208">
         <v>1043691480</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="202">
+      <c r="C5" s="206">
         <v>45591</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="196">
+      <c r="G5" s="200">
         <f>G3*G4/1000000</f>
         <v>4540.0578384658238</v>
       </c>
-      <c r="H5" s="196"/>
+      <c r="H5" s="200"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2233,10 +2218,10 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="197" t="s">
+      <c r="G6" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="197"/>
+      <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2303,7 +2288,7 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="169">
-        <v>9.6250000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F12" s="125"/>
     </row>
@@ -2349,7 +2334,7 @@
         <v>201</v>
       </c>
       <c r="C17" s="193">
-        <v>0.1125</v>
+        <v>0.1</v>
       </c>
       <c r="D17" s="188"/>
     </row>
@@ -2363,8 +2348,8 @@
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="213"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2375,8 +2360,8 @@
         <f>Fin_Analysis!F75</f>
         <v>0.66005868735054896</v>
       </c>
-      <c r="F20" s="213"/>
-      <c r="G20" s="214"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="176" t="s">
@@ -2386,8 +2371,8 @@
         <f>Fin_Analysis!F77</f>
         <v>0.20403193785652382</v>
       </c>
-      <c r="F21" s="213"/>
-      <c r="G21" s="214"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="176" t="s">
@@ -2490,16 +2475,16 @@
       </c>
       <c r="C29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.4195186357672553</v>
+        <v>2.606360685963037</v>
       </c>
       <c r="D29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>4.0325310596120918</v>
+        <v>4.3439344766050612</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>3.2260248476896738</v>
+        <v>3.4751475812840491</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -3408,22 +3393,22 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="12" priority="4">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="10" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="9" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3454,7 +3439,7 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E45" sqref="E45"/>
@@ -6870,17 +6855,17 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
+    <cfRule type="containsBlanks" dxfId="7" priority="3">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6901,8 +6886,8 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8018,11 +8003,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="209">
+      <c r="D56" s="212">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="210"/>
+      <c r="E56" s="213"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -8033,10 +8018,10 @@
         <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="204">
+      <c r="D57" s="208">
         <v>0</v>
       </c>
-      <c r="E57" s="203"/>
+      <c r="E57" s="207"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>92</v>
@@ -8048,10 +8033,10 @@
         <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="204">
+      <c r="D58" s="208">
         <v>0</v>
       </c>
-      <c r="E58" s="203"/>
+      <c r="E58" s="207"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
@@ -8265,11 +8250,11 @@
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="207">
+      <c r="C72" s="210">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="207"/>
+      <c r="D72" s="210"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
@@ -8279,14 +8264,14 @@
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="206" t="s">
+      <c r="C73" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="206"/>
-      <c r="E73" s="208" t="s">
+      <c r="D73" s="209"/>
+      <c r="E73" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="206"/>
+      <c r="F73" s="209"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
@@ -8568,10 +8553,10 @@
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="211" t="s">
+      <c r="D90" s="214" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="211"/>
+      <c r="E90" s="214"/>
       <c r="G90" s="94"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8581,10 +8566,10 @@
       <c r="C91" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="205" t="s">
+      <c r="D91" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="E91" s="205"/>
+      <c r="E91" s="215"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>7.5759810289163371E-2</v>
@@ -8598,17 +8583,17 @@
       </c>
       <c r="C92" s="175">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.6250000000000002E-2</v>
-      </c>
-      <c r="D92" s="215">
+        <v>0.09</v>
+      </c>
+      <c r="D92" s="196">
         <v>5</v>
       </c>
       <c r="E92" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="F92" s="216">
+      <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>4.9329187711481799</v>
+        <v>5.2754825747001375</v>
       </c>
       <c r="H92" s="186"/>
     </row>
@@ -8622,7 +8607,7 @@
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D94" s="217" t="s">
+      <c r="D94" s="198" t="s">
         <v>225</v>
       </c>
       <c r="E94" s="156" t="s">
@@ -8635,15 +8620,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>3251831.7752499217</v>
+        <v>3578506.7550575384</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>3.1157021376182183</v>
+        <v>3.4287017031676243</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>2.4525324501311041</v>
+        <v>2.6228472036124311</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8673,7 +8658,7 @@
         <f>C97*Data!$E$3/Common_Shares</f>
         <v>1.2645316410937837</v>
       </c>
-      <c r="E97" s="218"/>
+      <c r="E97" s="199"/>
       <c r="F97" s="157" t="s">
         <v>144</v>
       </c>
@@ -8684,19 +8669,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4568546.1200499218</v>
+        <v>4895221.0998575389</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>4.3772955970186915</v>
+        <v>4.6902951625680984</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>3.2829716977640189</v>
+        <v>3.5177213719260738</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>5.4716194962733642</v>
+        <v>5.862868953210123</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8707,7 +8692,7 @@
         <f>C94</f>
         <v>HKD</v>
       </c>
-      <c r="D100" s="217"/>
+      <c r="D100" s="198"/>
       <c r="E100" s="156" t="s">
         <v>143</v>
       </c>
@@ -8721,19 +8706,19 @@
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2165403.1755540986</v>
+        <v>2358742.7448</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>2.0747540983606561</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.556065573770492</v>
+        <v>1.6950000000000003</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.5934426229508203</v>
+        <v>2.8250000000000002</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8744,7 +8729,7 @@
         <f>C100</f>
         <v>HKD</v>
       </c>
-      <c r="D103" s="217"/>
+      <c r="D103" s="198"/>
       <c r="E103" s="156" t="s">
         <v>143</v>
       </c>
@@ -8758,19 +8743,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3366974.6478020102</v>
+        <v>3626981.9223287697</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>3.2260248476896738</v>
+        <v>3.4751475812840491</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>2.4195186357672553</v>
+        <v>2.606360685963037</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>4.0325310596120918</v>
+        <v>4.3439344766050612</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8783,39 +8768,39 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(C106))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="3" priority="10">
+    <cfRule type="containsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsBlanks" dxfId="1" priority="8">
+    <cfRule type="containsBlanks" dxfId="0" priority="8">
       <formula>LEN(TRIM(F92))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E859F4D-4088-4D5A-B35B-AA6D8A8AB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE21DF05-AB7E-2448-8E42-159B8D4CC586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -810,18 +821,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1276,7 +1287,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1332,8 +1343,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,14 +1367,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1388,7 +1399,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1416,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,7 +1424,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,7 +1471,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1545,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1610,10 +1621,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,16 +1635,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,7 +1708,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1717,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,10 +1735,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1736,7 +1747,7 @@
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,20 +1761,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1772,11 +1774,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2107,19 +2118,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2128,7 +2139,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2143,7 +2154,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2156,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="170">
-        <v>4.3499999046325684</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="H3" s="172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2180,7 +2191,7 @@
       <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2194,13 +2205,13 @@
       </c>
       <c r="G5" s="200">
         <f>G3*G4/1000000</f>
-        <v>4540.0578384658238</v>
+        <v>4821.8545181589889</v>
       </c>
       <c r="H5" s="200"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2235,7 @@
       <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2246,8 +2257,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="179" t="s">
         <v>212</v>
       </c>
@@ -2255,7 +2266,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2288,23 +2299,23 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="169">
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="169">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2315,7 +2326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2329,17 +2340,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="193">
-        <v>0.1</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="188"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="184" t="s">
         <v>204</v>
       </c>
@@ -2352,7 +2363,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="176" t="s">
         <v>185</v>
       </c>
@@ -2363,7 +2374,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="176" t="s">
         <v>186</v>
       </c>
@@ -2374,7 +2385,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="176" t="s">
         <v>187</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="176" t="s">
         <v>188</v>
       </c>
@@ -2399,10 +2410,10 @@
       </c>
       <c r="G23" s="187">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.2383808726780174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.315245888616694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="176" t="s">
         <v>189</v>
       </c>
@@ -2415,10 +2426,10 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.5759810289163371E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7.1332289111726149E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="176" t="s">
         <v>213</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>0.480041023736138</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="178" t="s">
         <v>191</v>
       </c>
@@ -2447,11 +2458,11 @@
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.6367816889265589E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.4242425090635187E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2469,919 +2480,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.606360685963037</v>
+        <v>2.787300464949225</v>
       </c>
       <c r="D29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>4.3439344766050612</v>
+        <v>4.6455007749153756</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>3.4751475812840491</v>
+        <v>3.7164006199323003</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3445,7 +3456,7 @@
       <selection pane="topRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3453,7 +3464,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3461,7 +3472,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3478,7 +3489,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3504,13 +3515,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3560,7 +3571,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3594,7 +3605,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3645,7 +3656,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3679,7 +3690,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3730,7 +3741,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3764,7 +3775,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3815,7 +3826,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3849,7 +3860,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3900,7 +3911,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3918,7 +3929,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3952,7 +3963,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3986,7 +3997,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4020,7 +4031,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4054,7 +4065,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4105,7 +4116,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4156,7 +4167,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4207,7 +4218,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4258,7 +4269,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4309,7 +4320,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4360,7 +4371,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4411,7 +4422,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4446,7 +4457,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4481,7 +4492,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4516,7 +4527,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4547,7 +4558,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4578,7 +4589,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4609,7 +4620,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4640,7 +4651,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4691,7 +4702,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4722,7 +4733,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4753,7 +4764,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4784,7 +4795,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4835,7 +4846,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4886,7 +4897,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4904,7 +4915,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4955,7 +4966,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -5006,7 +5017,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5057,7 +5068,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5108,7 +5119,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5159,7 +5170,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5210,7 +5221,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5261,7 +5272,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5279,7 +5290,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5330,7 +5341,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5381,7 +5392,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5398,7 +5409,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5448,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5498,7 +5509,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5548,7 +5559,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5598,1260 +5609,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6890,7 +6901,7 @@
       <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6899,11 +6910,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6919,7 +6930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6942,7 +6953,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6958,7 +6969,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6973,18 +6984,18 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>1263294.6332545376</v>
+        <v>1259788.5892825266</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65541410130848332</v>
+        <v>0.65637043665666339</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6998,14 +7009,14 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>1.2104100277359144</v>
+        <v>1.2070507553463277</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7021,13 +7032,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7046,7 +7057,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7071,7 +7082,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7094,7 +7105,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7117,7 +7128,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7140,7 +7151,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7163,7 +7174,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7186,7 +7197,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7204,7 +7215,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7224,7 +7235,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7243,7 +7254,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7263,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7285,7 +7296,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7304,7 +7315,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7326,7 +7337,7 @@
         <v>797492</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7335,7 +7346,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7357,7 +7368,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7386,7 +7397,7 @@
         <v>2.4149712645467392</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7419,7 +7430,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7452,7 +7463,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7481,7 +7492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7493,7 +7504,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7512,7 +7523,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7536,7 +7547,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7556,7 +7567,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7579,7 +7590,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7602,7 +7613,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7625,7 +7636,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7647,7 +7658,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7669,7 +7680,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7688,7 +7699,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7705,7 +7716,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7724,7 +7735,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7743,7 +7754,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>98092</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7776,7 +7787,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7795,7 +7806,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7814,7 +7825,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7844,7 +7855,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7874,7 +7885,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7900,7 +7911,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7927,20 +7938,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7957,7 +7968,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7967,18 +7978,18 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.2383808726780174</v>
+        <v>1.315245888616694</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>56486.26674546241</v>
+        <v>59992.310717473265</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7987,7 +7998,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7998,22 +8009,22 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="212">
+      <c r="D56" s="209">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="213"/>
+      <c r="E56" s="210"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8028,7 +8039,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8042,7 +8053,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -8051,7 +8062,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8065,7 +8076,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8086,7 +8097,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8107,7 +8118,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8128,7 +8139,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -8143,7 +8154,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8164,7 +8175,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8174,7 +8185,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8188,7 +8199,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8209,7 +8220,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8224,7 +8235,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8245,35 +8256,35 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="210">
+      <c r="C72" s="214">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="210"/>
+      <c r="D72" s="214"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="209" t="s">
+      <c r="C73" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="209"/>
-      <c r="E73" s="211" t="s">
+      <c r="D73" s="213"/>
+      <c r="E73" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="209"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="213"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8288,7 +8299,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8309,7 +8320,7 @@
         <v>0.66005868735054896</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8324,7 +8335,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8345,7 +8356,7 @@
         <v>0.20403193785652382</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8360,7 +8371,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8381,7 +8392,7 @@
         <v>7.0437342852983705E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8402,7 +8413,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8426,7 +8437,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8447,7 +8458,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8468,7 +8479,7 @@
         <v>0.11503893745007428</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8500,7 +8511,7 @@
         <v>8.9730371211057924E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8515,7 +8526,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8535,11 +8546,11 @@
         <v>0.480041023736138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8549,41 +8560,41 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="214" t="s">
+      <c r="D90" s="211" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="214"/>
+      <c r="E90" s="211"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C91" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="215" t="s">
+      <c r="D91" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="E91" s="215"/>
+      <c r="E91" s="212"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.5759810289163371E-2</v>
+        <v>7.1332289111726149E-2</v>
       </c>
       <c r="H91" s="186"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
       </c>
       <c r="C92" s="175">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D92" s="196">
         <v>5</v>
@@ -8593,11 +8604,11 @@
       </c>
       <c r="F92" s="197">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>5.2754825747001375</v>
+        <v>5.5369399295844604</v>
       </c>
       <c r="H92" s="186"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8614,24 +8625,24 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>3578506.7550575384</v>
+        <v>3860962.1046551201</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>3.4287017031676243</v>
+        <v>3.6993327804641272</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>2.6228472036124311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.752837717733545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8646,7 +8657,7 @@
       <c r="E96" s="130"/>
       <c r="F96" s="137"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8663,28 +8674,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>4895221.0998575389</v>
+        <v>5177676.4494551197</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>4.6902951625680984</v>
+        <v>4.9609262398646008</v>
       </c>
       <c r="E98" s="124">
         <f>D98*(1-25%)</f>
-        <v>3.5177213719260738</v>
+        <v>3.7206946798984504</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>5.862868953210123</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6.2011577998307512</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8700,28 +8711,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>2358742.7448</v>
+        <v>2579874.8771250006</v>
       </c>
       <c r="D101" s="154">
         <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>2.2600000000000002</v>
+        <v>2.4718750000000003</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.6950000000000003</v>
+        <v>1.8539062500000001</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.8250000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.0898437500000004</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8737,28 +8748,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>3626981.9223287697</v>
+        <v>3878775.6632900601</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>3.4751475812840491</v>
+        <v>3.7164006199323003</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>2.606360685963037</v>
+        <v>2.787300464949225</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>4.3439344766050612</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.6455007749153756</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
@@ -8768,14 +8779,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/1475.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE21DF05-AB7E-2448-8E42-159B8D4CC586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE59040-5706-43E2-B636-A40DA53CAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -821,18 +810,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1287,7 +1276,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="216">
@@ -1343,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1399,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1424,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1621,10 +1610,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1635,16 +1624,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1708,7 +1697,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,10 +1706,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1735,10 +1724,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1747,7 +1736,7 @@
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1750,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1774,20 +1763,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2118,19 +2107,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2139,7 +2128,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2154,7 +2143,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2167,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="170">
-        <v>4.619999885559082</v>
+        <v>4.5399999618530273</v>
       </c>
       <c r="H3" s="172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2191,7 +2180,7 @@
       <c r="H4" s="208"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2205,13 +2194,13 @@
       </c>
       <c r="G5" s="200">
         <f>G3*G4/1000000</f>
-        <v>4821.8545181589889</v>
+        <v>4738.3592793863299</v>
       </c>
       <c r="H5" s="200"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2224,7 @@
       <c r="H6" s="201"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>214</v>
       </c>
@@ -2257,8 +2246,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="179" t="s">
         <v>212</v>
       </c>
@@ -2266,7 +2255,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2277,7 +2266,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2291,7 +2280,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2303,8 +2292,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2326,7 +2315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2340,7 +2329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2349,8 +2338,8 @@
       </c>
       <c r="D17" s="188"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="184" t="s">
         <v>204</v>
       </c>
@@ -2363,7 +2352,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="176" t="s">
         <v>185</v>
       </c>
@@ -2374,7 +2363,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="176" t="s">
         <v>186</v>
       </c>
@@ -2385,7 +2374,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="176" t="s">
         <v>187</v>
       </c>
@@ -2397,7 +2386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="176" t="s">
         <v>188</v>
       </c>
@@ -2410,10 +2399,10 @@
       </c>
       <c r="G23" s="187">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>1.315245888616694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.2924710891901992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="176" t="s">
         <v>189</v>
       </c>
@@ -2426,10 +2415,10 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>7.1332289111726149E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7.2589244559890326E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="176" t="s">
         <v>213</v>
       </c>
@@ -2445,7 +2434,7 @@
         <v>0.480041023736138</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="178" t="s">
         <v>191</v>
       </c>
@@ -2458,11 +2447,11 @@
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>3.4242425090635187E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3.4845815270762637E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2480,919 +2469,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>2.787300464949225</v>
+        <v>2.7954576337037467</v>
       </c>
       <c r="D29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>4.6455007749153756</v>
+        <v>4.6590960561729116</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="168">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>3.7164006199323003</v>
+        <v>3.7272768449383289</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3456,7 +3445,7 @@
       <selection pane="topRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3464,7 +3453,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3472,7 +3461,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3489,7 +3478,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3515,13 +3504,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3571,7 +3560,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3605,7 +3594,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3656,7 +3645,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3690,7 +3679,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3741,7 +3730,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3775,7 +3764,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3826,7 +3815,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3860,7 +3849,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3911,7 +3900,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3929,7 +3918,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3963,7 +3952,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3997,7 +3986,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -4031,7 +4020,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4065,7 +4054,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4116,7 +4105,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4167,7 +4156,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4218,7 +4207,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4269,7 +4258,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4320,7 +4309,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4371,7 +4360,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4422,7 +4411,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4457,7 +4446,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4492,7 +4481,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4527,7 +4516,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4558,7 +4547,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4589,7 +4578,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4620,7 +4609,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4651,7 +4640,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4702,7 +4691,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4733,7 +4722,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4764,7 +4753,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4795,7 +4784,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4846,7 +4835,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4897,7 +4886,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4915,7 +4904,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4966,7 +4955,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -5017,7 +5006,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -5068,7 +5057,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5119,7 +5108,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5170,7 +5159,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5221,7 +5210,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5272,7 +5261,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5290,7 +5279,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5341,7 +5330,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5392,7 +5381,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5409,7 +5398,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5459,7 +5448,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5509,7 +5498,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5559,7 +5548,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5609,1260 +5598,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    